--- a/Thesis_project/01_data-input/Eurostat/demo_r_frate2.xlsx
+++ b/Thesis_project/01_data-input/Eurostat/demo_r_frate2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\Eurostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\Eurostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA32AF73-DEAF-42B6-8677-AAC3BB61F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBCDB6-7DE6-4B6C-971B-200F48FF2A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16933" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16932" uniqueCount="829">
   <si>
     <t>Fertility rates by age and NUTS 2 region [demo_r_frate2__custom_11919126]</t>
   </si>
@@ -2474,12 +2474,6 @@
     <t>Northern Ireland (UK)</t>
   </si>
   <si>
-    <t>Jadranska Hrvatska (2016)</t>
-  </si>
-  <si>
-    <t>Kontinentalna Hrvatska (2016)</t>
-  </si>
-  <si>
     <t>LT00</t>
   </si>
   <si>
@@ -2526,6 +2520,12 @@
   </si>
   <si>
     <t>Southern and Eastern (NUTS 2013)</t>
+  </si>
+  <si>
+    <t>AL00</t>
+  </si>
+  <si>
+    <t>Jadranska Hrvatska (NUTS 2016)</t>
   </si>
 </sst>
 </file>
@@ -2724,10 +2724,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8610,190 +8610,190 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>719</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>720</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>721</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>722</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="28" t="s">
+      <c r="J9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>723</v>
       </c>
-      <c r="L9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="28" t="s">
+      <c r="L9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="29" t="s">
         <v>724</v>
       </c>
-      <c r="N9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="N9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="28" t="s">
+      <c r="P9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="29" t="s">
         <v>726</v>
       </c>
-      <c r="R9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="28" t="s">
+      <c r="R9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="T9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="28" t="s">
+      <c r="T9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="29" t="s">
         <v>728</v>
       </c>
-      <c r="V9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="28" t="s">
+      <c r="V9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="29" t="s">
         <v>729</v>
       </c>
-      <c r="X9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="28" t="s">
+      <c r="X9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="29" t="s">
         <v>730</v>
       </c>
-      <c r="Z9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA9" s="28" t="s">
+      <c r="Z9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA9" s="29" t="s">
         <v>731</v>
       </c>
-      <c r="AB9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC9" s="28" t="s">
+      <c r="AB9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC9" s="29" t="s">
         <v>732</v>
       </c>
-      <c r="AD9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="28" t="s">
+      <c r="AD9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="29" t="s">
         <v>733</v>
       </c>
-      <c r="AF9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="28" t="s">
+      <c r="AF9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="29" t="s">
         <v>734</v>
       </c>
-      <c r="AH9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI9" s="28" t="s">
+      <c r="AH9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" s="29" t="s">
         <v>735</v>
       </c>
-      <c r="AJ9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK9" s="28" t="s">
+      <c r="AJ9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK9" s="29" t="s">
         <v>736</v>
       </c>
-      <c r="AL9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="28" t="s">
+      <c r="AL9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="29" t="s">
         <v>737</v>
       </c>
-      <c r="AN9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO9" s="28" t="s">
+      <c r="AN9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO9" s="29" t="s">
         <v>738</v>
       </c>
-      <c r="AP9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ9" s="28" t="s">
+      <c r="AP9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="29" t="s">
         <v>739</v>
       </c>
-      <c r="AR9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS9" s="28" t="s">
+      <c r="AR9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS9" s="29" t="s">
         <v>740</v>
       </c>
-      <c r="AT9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU9" s="28" t="s">
+      <c r="AT9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU9" s="29" t="s">
         <v>741</v>
       </c>
-      <c r="AV9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW9" s="28" t="s">
+      <c r="AV9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW9" s="29" t="s">
         <v>742</v>
       </c>
-      <c r="AX9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY9" s="28" t="s">
+      <c r="AX9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY9" s="29" t="s">
         <v>743</v>
       </c>
-      <c r="AZ9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA9" s="28" t="s">
+      <c r="AZ9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA9" s="29" t="s">
         <v>744</v>
       </c>
-      <c r="BB9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC9" s="28" t="s">
+      <c r="BB9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC9" s="29" t="s">
         <v>745</v>
       </c>
-      <c r="BD9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE9" s="28" t="s">
+      <c r="BD9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE9" s="29" t="s">
         <v>746</v>
       </c>
-      <c r="BF9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG9" s="28" t="s">
+      <c r="BF9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG9" s="29" t="s">
         <v>747</v>
       </c>
-      <c r="BH9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI9" s="28" t="s">
+      <c r="BH9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI9" s="29" t="s">
         <v>748</v>
       </c>
-      <c r="BJ9" s="28" t="s">
+      <c r="BJ9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -72761,37 +72761,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
     <mergeCell ref="BI9:BJ9"/>
     <mergeCell ref="AY9:AZ9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
     <mergeCell ref="BE9:BF9"/>
     <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72802,10 +72802,10 @@
   <dimension ref="A1:V319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -77577,10 +77577,10 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>755</v>
@@ -77652,10 +77652,10 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>755</v>
@@ -81470,7 +81470,7 @@
         <v>303</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>755</v>
@@ -81538,7 +81538,7 @@
         <v>305</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>812</v>
+        <v>306</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>755</v>
@@ -83439,10 +83439,10 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>755</v>
@@ -83730,10 +83730,10 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>755</v>
@@ -90413,10 +90413,10 @@
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>755</v>
@@ -90487,10 +90487,10 @@
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>755</v>
@@ -91921,10 +91921,10 @@
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="20" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C281" s="25" t="str">
         <f>C278</f>
@@ -92009,10 +92009,10 @@
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>755</v>
@@ -92283,7 +92283,7 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>649</v>
+        <v>827</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>650</v>
@@ -92345,8 +92345,9 @@
       <c r="U286" s="14">
         <v>1.37</v>
       </c>
-      <c r="V286" s="7" t="s">
-        <v>755</v>
+      <c r="V286" s="25">
+        <f>(V287+V288+V289)/3</f>
+        <v>1.3666666666666665</v>
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
